--- a/Municipios y distancias.xlsx
+++ b/Municipios y distancias.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\Universidad Distrital\8vo Semestre\Ciencias de la computacion II\ruta_mas_corta_municipios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Usuarios\fabio\OneDrive\Documents\Programas\Ciencias II\ruta_mas_corta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B39FDD-DFF2-4BD1-B729-04F558243655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{916DAE8C-7990-4D75-9D55-3FE4CA6C278B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A66EBDF0-D6DD-45B5-A9F8-42549C9CBD4E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{A66EBDF0-D6DD-45B5-A9F8-42549C9CBD4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -136,7 +136,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -152,107 +151,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF9FC5E8"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -274,36 +183,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -638,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDC4ADA4-4CAE-4425-A71C-2E4AA0F79BD0}">
-  <dimension ref="B1:I22"/>
+  <dimension ref="B2:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,275 +549,274 @@
     <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="4">
         <v>115384151</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="4">
         <v>-729167838</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-    </row>
-    <row r="4" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="4">
         <v>11007984</v>
       </c>
       <c r="E4" s="4">
         <v>-74248926</v>
       </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-    </row>
-    <row r="5" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="4">
         <v>92580323</v>
       </c>
       <c r="E5" s="4">
         <v>-738142384</v>
       </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-    </row>
-    <row r="6" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="4">
         <v>7882761</v>
       </c>
       <c r="E6" s="4">
         <v>-76624692</v>
       </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-    </row>
-    <row r="7" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="4">
         <v>78890971</v>
       </c>
       <c r="E7" s="4">
         <v>-724966896</v>
       </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-    </row>
-    <row r="8" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="4">
         <v>62337643</v>
       </c>
       <c r="E8" s="4">
         <v>-751592213</v>
       </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-    </row>
-    <row r="9" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="4">
         <v>58268951</v>
       </c>
       <c r="E9" s="4">
         <v>-730329273</v>
       </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-    </row>
-    <row r="10" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="4">
         <v>45249941</v>
       </c>
       <c r="E10" s="4">
         <v>-769182097</v>
       </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-    </row>
-    <row r="11" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="4">
         <v>49224602</v>
       </c>
       <c r="E11" s="4">
         <v>-750642244</v>
       </c>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-    </row>
-    <row r="12" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="4">
         <v>54077975</v>
       </c>
       <c r="E12" s="4">
         <v>-716613672</v>
       </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-    </row>
-    <row r="13" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="4">
         <v>4570868</v>
       </c>
       <c r="E13" s="4">
         <v>-74297333</v>
       </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-    </row>
-    <row r="14" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="4">
         <v>32207713</v>
       </c>
       <c r="E14" s="4">
         <v>-752188977</v>
       </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-    </row>
-    <row r="15" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="4">
         <v>407584</v>
       </c>
       <c r="E15" s="4">
         <v>-7095975</v>
       </c>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-    </row>
-    <row r="16" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="4">
         <v>4570868</v>
       </c>
       <c r="E16" s="4">
         <v>-74297333</v>
       </c>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-    </row>
-    <row r="17" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="4">
         <v>347108</v>
       </c>
       <c r="E17" s="4">
         <v>-6796666</v>
       </c>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-    </row>
-    <row r="18" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="4">
         <v>12058837</v>
       </c>
       <c r="E18" s="4">
         <v>-77285787</v>
       </c>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-    </row>
-    <row r="19" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="4">
         <v>4570868</v>
       </c>
       <c r="E19" s="4">
         <v>-74297333</v>
       </c>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-    </row>
-    <row r="20" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="4">
         <v>-153328</v>
       </c>
       <c r="E20" s="4">
         <v>-7196663</v>
       </c>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-    </row>
-    <row r="21" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="4">
         <v>4570868</v>
       </c>
       <c r="E21" s="4">
         <v>-74297333</v>
       </c>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-    </row>
-    <row r="22" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>23</v>
       </c>
@@ -929,8 +826,8 @@
       <c r="E22" s="4">
         <v>-7101769</v>
       </c>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -948,630 +845,630 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="9"/>
-    <col min="2" max="2" width="13" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="8.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9" style="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7" style="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="11.42578125" style="9"/>
+    <col min="1" max="1" width="11.42578125" style="2"/>
+    <col min="2" max="2" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B2" s="8"/>
-      <c r="C2" s="8" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="P2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="Q2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="R2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="S2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="T2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="U2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="V2" s="8" t="s">
+      <c r="V2" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="8">
-        <v>0</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8">
-        <v>0</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8">
-        <v>0</v>
-      </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8">
-        <v>0</v>
-      </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8">
-        <v>0</v>
-      </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8">
-        <v>0</v>
-      </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8">
-        <v>0</v>
-      </c>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8">
-        <v>0</v>
-      </c>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8">
-        <v>0</v>
-      </c>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8">
-        <v>0</v>
-      </c>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
     </row>
     <row r="13" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8">
-        <v>0</v>
-      </c>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="8"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8">
-        <v>0</v>
-      </c>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
     </row>
     <row r="15" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8">
-        <v>0</v>
-      </c>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
-      <c r="V15" s="8"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1">
+        <v>0</v>
+      </c>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="8"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8">
-        <v>0</v>
-      </c>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="8"/>
-      <c r="V17" s="8"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1">
+        <v>0</v>
+      </c>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8">
-        <v>0</v>
-      </c>
-      <c r="S18" s="8"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="8"/>
-      <c r="V18" s="8"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1">
+        <v>0</v>
+      </c>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8">
-        <v>0</v>
-      </c>
-      <c r="T19" s="8"/>
-      <c r="U19" s="8"/>
-      <c r="V19" s="8"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1">
+        <v>0</v>
+      </c>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
-      <c r="T20" s="8">
-        <v>0</v>
-      </c>
-      <c r="U20" s="8"/>
-      <c r="V20" s="8"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1">
+        <v>0</v>
+      </c>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="8">
-        <v>0</v>
-      </c>
-      <c r="V21" s="8"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1">
+        <v>0</v>
+      </c>
+      <c r="V21" s="1"/>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="8"/>
-      <c r="V22" s="8">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1">
         <v>0</v>
       </c>
     </row>

--- a/Municipios y distancias.xlsx
+++ b/Municipios y distancias.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\Universidad Distrital\8vo Semestre\Ciencias de la computacion II\ruta_mas_corta_municipios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B39FDD-DFF2-4BD1-B729-04F558243655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E079DA6-E50B-483B-AC0D-6C599B6AB614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A66EBDF0-D6DD-45B5-A9F8-42549C9CBD4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -274,23 +275,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -304,6 +290,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -638,299 +636,463 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDC4ADA4-4CAE-4425-A71C-2E4AA0F79BD0}">
-  <dimension ref="B1:I22"/>
+  <dimension ref="B1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="L3" sqref="L3:L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1">
-        <v>115384151</v>
-      </c>
-      <c r="E3" s="2">
-        <v>-729167838</v>
-      </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-    </row>
-    <row r="4" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="6">
+        <v>11.5384151</v>
+      </c>
+      <c r="E3" s="7">
+        <v>-72.916783800000005</v>
+      </c>
+      <c r="G3" t="str">
+        <f>_xlfn.CONCAT(D3,",",E3)</f>
+        <v>11.5384151,-72.9167838</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="L3" t="str">
+        <f>_xlfn.CONCAT("&lt;li&gt;",C3,"&lt;/li&gt;")</f>
+        <v>&lt;li&gt;Rioacha&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="3">
-        <v>11007984</v>
-      </c>
-      <c r="E4" s="4">
-        <v>-74248926</v>
-      </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-    </row>
-    <row r="5" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="8">
+        <v>11.007984</v>
+      </c>
+      <c r="E4" s="9">
+        <v>-74.248925999999997</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" ref="G4:G22" si="0">_xlfn.CONCAT(D4,",",E4)</f>
+        <v>11.007984,-74.248926</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="L4" t="str">
+        <f t="shared" ref="L4:L22" si="1">_xlfn.CONCAT("&lt;li&gt;",C4,"&lt;/li&gt;")</f>
+        <v>&lt;li&gt;Cienaga&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="3">
-        <v>92580323</v>
-      </c>
-      <c r="E5" s="4">
-        <v>-738142384</v>
-      </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-    </row>
-    <row r="6" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="8">
+        <v>9.2580323</v>
+      </c>
+      <c r="E5" s="9">
+        <v>-73.814238399999994</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>9.2580323,-73.8142384</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="L5" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;li&gt;Chimichagua&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="3">
-        <v>7882761</v>
-      </c>
-      <c r="E6" s="4">
-        <v>-76624692</v>
-      </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-    </row>
-    <row r="7" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="8">
+        <v>7.8827610000000004</v>
+      </c>
+      <c r="E6" s="9">
+        <v>-76.624691999999996</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>7.882761,-76.624692</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="L6" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;li&gt;Apartadó&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="3">
-        <v>78890971</v>
-      </c>
-      <c r="E7" s="4">
-        <v>-724966896</v>
-      </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-    </row>
-    <row r="8" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="8">
+        <v>7.8890970999999999</v>
+      </c>
+      <c r="E7" s="9">
+        <v>-72.496689599999996</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>7.8890971,-72.4966896</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="L7" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;li&gt;Cucuta&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="3">
-        <v>62337643</v>
-      </c>
-      <c r="E8" s="4">
-        <v>-751592213</v>
-      </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-    </row>
-    <row r="9" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="8">
+        <v>6.2337642999999998</v>
+      </c>
+      <c r="E8" s="9">
+        <v>-75.159221299999999</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>6.2337643,-75.1592213</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="L8" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;li&gt;Guatapé&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="3">
-        <v>58268951</v>
-      </c>
-      <c r="E9" s="4">
-        <v>-730329273</v>
-      </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-    </row>
-    <row r="10" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="8">
+        <v>5.8268950999999998</v>
+      </c>
+      <c r="E9" s="9">
+        <v>-73.032927299999997</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>5.8268951,-73.0329273</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="L9" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;li&gt;Duitama&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="3">
-        <v>45249941</v>
-      </c>
-      <c r="E10" s="4">
-        <v>-769182097</v>
-      </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-    </row>
-    <row r="11" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="8">
+        <v>4.5249940999999998</v>
+      </c>
+      <c r="E10" s="9">
+        <v>-76.918209700000006</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>4.5249941,-76.9182097</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="L10" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;li&gt;Istmina&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="3">
-        <v>49224602</v>
-      </c>
-      <c r="E11" s="4">
-        <v>-750642244</v>
-      </c>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-    </row>
-    <row r="12" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="8">
+        <v>4.9224601999999997</v>
+      </c>
+      <c r="E11" s="9">
+        <v>-75.064224400000001</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>4.9224602,-75.0642244</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="L11" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;li&gt;Libano&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="3">
-        <v>54077975</v>
-      </c>
-      <c r="E12" s="4">
-        <v>-716613672</v>
-      </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-    </row>
-    <row r="13" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="8">
+        <v>5.4077975</v>
+      </c>
+      <c r="E12" s="9">
+        <v>-71.661367200000001</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>5.4077975,-71.6613672</v>
+      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="L12" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;li&gt;Trinidad&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="3">
-        <v>4570868</v>
-      </c>
-      <c r="E13" s="4">
-        <v>-74297333</v>
-      </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-    </row>
-    <row r="14" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="8">
+        <v>4.7666899999999996</v>
+      </c>
+      <c r="E13" s="9">
+        <v>-68.499930000000006</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>4.76669,-68.49993</v>
+      </c>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="L13" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;li&gt;Arebe&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="3">
-        <v>32207713</v>
-      </c>
-      <c r="E14" s="4">
-        <v>-752188977</v>
-      </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-    </row>
-    <row r="15" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="8">
+        <v>3.2207713</v>
+      </c>
+      <c r="E14" s="9">
+        <v>-75.218897699999999</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>3.2207713,-75.2188977</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="L14" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;li&gt;Villavieja&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="3">
-        <v>407584</v>
-      </c>
-      <c r="E15" s="4">
-        <v>-7095975</v>
-      </c>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-    </row>
-    <row r="16" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="8">
+        <v>4.2439</v>
+      </c>
+      <c r="E15" s="9">
+        <v>-70.917699999999996</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>4.2439,-70.9177</v>
+      </c>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="L15" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;li&gt;Guarrojo&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="3">
-        <v>4570868</v>
-      </c>
-      <c r="E16" s="4">
-        <v>-74297333</v>
-      </c>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-    </row>
-    <row r="17" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="8">
+        <v>4.1491688</v>
+      </c>
+      <c r="E16" s="9">
+        <v>-73.628547499999996</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>4.1491688,-73.6285475</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="L16" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;li&gt;Villaviencio&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="3">
-        <v>347108</v>
-      </c>
-      <c r="E17" s="4">
-        <v>-6796666</v>
-      </c>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-    </row>
-    <row r="18" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="8">
+        <v>3.4710800000000002</v>
+      </c>
+      <c r="E17" s="9">
+        <v>-67.966660000000005</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>3.47108,-67.96666</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="L17" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;li&gt;Mavicure&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="3">
-        <v>12058837</v>
-      </c>
-      <c r="E18" s="4">
-        <v>-77285787</v>
-      </c>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-    </row>
-    <row r="19" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="8">
+        <v>1.2058837</v>
+      </c>
+      <c r="E18" s="9">
+        <v>-77.285786999999999</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v>1.2058837,-77.285787</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="L18" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;li&gt;Pasto&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="3">
-        <v>4570868</v>
-      </c>
-      <c r="E19" s="4">
-        <v>-74297333</v>
-      </c>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-    </row>
-    <row r="20" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D19" s="8">
+        <v>4.5708679999999999</v>
+      </c>
+      <c r="E19" s="9">
+        <v>-74.297332999999995</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="0"/>
+        <v>4.570868,-74.297333</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="L19" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;li&gt;Atenas&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="20" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="3">
-        <v>-153328</v>
-      </c>
-      <c r="E20" s="4">
-        <v>-7196663</v>
-      </c>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-    </row>
-    <row r="21" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="8">
+        <v>-1.53328</v>
+      </c>
+      <c r="E20" s="9">
+        <v>-71.966629999999995</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="0"/>
+        <v>-1.53328,-71.96663</v>
+      </c>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="L20" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;li&gt;Tolima B&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="3">
-        <v>4570868</v>
-      </c>
-      <c r="E21" s="4">
-        <v>-74297333</v>
-      </c>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-    </row>
-    <row r="22" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="8">
+        <v>4.5708679999999999</v>
+      </c>
+      <c r="E21" s="9">
+        <v>-74.297332999999995</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="0"/>
+        <v>4.570868,-74.297333</v>
+      </c>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="L21" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;li&gt;Turapaca&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="8">
         <v>0.87722999999999995</v>
       </c>
-      <c r="E22" s="4">
-        <v>-7101769</v>
-      </c>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
+      <c r="E22" s="9">
+        <v>-71.017690000000002</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="0"/>
+        <v>0.87723,-71.01769</v>
+      </c>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="L22" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;li&gt;Pucaron&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -948,634 +1110,689 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="9"/>
-    <col min="2" max="2" width="13" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="8.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9" style="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7" style="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="11.42578125" style="9"/>
+    <col min="1" max="1" width="11.42578125" style="4"/>
+    <col min="2" max="2" width="13" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B2" s="8"/>
-      <c r="C2" s="8" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="P2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="Q2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="R2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="S2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="T2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="U2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="V2" s="8" t="s">
+      <c r="V2" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="8">
-        <v>0</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8">
-        <v>0</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8">
-        <v>0</v>
-      </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8">
-        <v>0</v>
-      </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8">
-        <v>0</v>
-      </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8">
-        <v>0</v>
-      </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8">
-        <v>0</v>
-      </c>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8">
-        <v>0</v>
-      </c>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8">
-        <v>0</v>
-      </c>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3">
+        <v>0</v>
+      </c>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8">
-        <v>0</v>
-      </c>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
     </row>
     <row r="13" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8">
-        <v>0</v>
-      </c>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="8"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8">
-        <v>0</v>
-      </c>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
     </row>
     <row r="15" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8">
-        <v>0</v>
-      </c>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
-      <c r="V15" s="8"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="8"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8">
-        <v>0</v>
-      </c>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="8"/>
-      <c r="V17" s="8"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8">
-        <v>0</v>
-      </c>
-      <c r="S18" s="8"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="8"/>
-      <c r="V18" s="8"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8">
-        <v>0</v>
-      </c>
-      <c r="T19" s="8"/>
-      <c r="U19" s="8"/>
-      <c r="V19" s="8"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3">
+        <v>0</v>
+      </c>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
-      <c r="T20" s="8">
-        <v>0</v>
-      </c>
-      <c r="U20" s="8"/>
-      <c r="V20" s="8"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="8">
-        <v>0</v>
-      </c>
-      <c r="V21" s="8"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3">
+        <v>0</v>
+      </c>
+      <c r="V21" s="3"/>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="8"/>
-      <c r="V22" s="8">
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5195C8F7-F693-4350-8B19-F674E6920B93}">
+  <dimension ref="E2:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="6" width="11.42578125" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E2" s="5">
+        <v>11.5384151</v>
+      </c>
+      <c r="F2" s="5">
+        <v>-72.916783800000005</v>
+      </c>
+      <c r="H2" t="str">
+        <f>_xlfn.CONCAT(E2,",",F2)</f>
+        <v>11.5384151,-72.9167838</v>
+      </c>
+    </row>
+    <row r="3" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E3" s="5">
+        <v>11.007984</v>
+      </c>
+      <c r="F3" s="5">
+        <v>-74.248925999999997</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H4" si="0">_xlfn.CONCAT(E3,",",F3)</f>
+        <v>11.007984,-74.248926</v>
+      </c>
+    </row>
+    <row r="4" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E4" s="5">
+        <v>9.2580323</v>
+      </c>
+      <c r="F4" s="5">
+        <v>-73.814238399999994</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="0"/>
+        <v>9.2580323,-73.8142384</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>